--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y716"/>
+  <dimension ref="A1:Y717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="R715" s="2" t="inlineStr"/>
     </row>
-    <row r="716">
+    <row r="716" ht="15" customHeight="1">
       <c r="A716" t="inlineStr">
         <is>
           <t>A 40529-2023</t>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43244,6 +43244,63 @@
         <v>0</v>
       </c>
       <c r="R716" s="2" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>A 42634-2023</t>
+        </is>
+      </c>
+      <c r="B717" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C717" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>JÖNKÖPING</t>
+        </is>
+      </c>
+      <c r="G717" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0</v>
+      </c>
+      <c r="J717" t="n">
+        <v>0</v>
+      </c>
+      <c r="K717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N717" t="n">
+        <v>0</v>
+      </c>
+      <c r="O717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R717" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y717"/>
+  <dimension ref="A1:Y720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
       </c>
       <c r="R716" s="2" t="inlineStr"/>
     </row>
-    <row r="717">
+    <row r="717" ht="15" customHeight="1">
       <c r="A717" t="inlineStr">
         <is>
           <t>A 42634-2023</t>
@@ -43255,7 +43255,7 @@
         <v>45181</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43301,6 +43301,177 @@
         <v>0</v>
       </c>
       <c r="R717" s="2" t="inlineStr"/>
+    </row>
+    <row r="718" ht="15" customHeight="1">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>A 43063-2023</t>
+        </is>
+      </c>
+      <c r="B718" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C718" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>JÖNKÖPING</t>
+        </is>
+      </c>
+      <c r="G718" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0</v>
+      </c>
+      <c r="J718" t="n">
+        <v>0</v>
+      </c>
+      <c r="K718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N718" t="n">
+        <v>0</v>
+      </c>
+      <c r="O718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R718" s="2" t="inlineStr"/>
+    </row>
+    <row r="719" ht="15" customHeight="1">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>A 42838-2023</t>
+        </is>
+      </c>
+      <c r="B719" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C719" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>JÖNKÖPING</t>
+        </is>
+      </c>
+      <c r="G719" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0</v>
+      </c>
+      <c r="J719" t="n">
+        <v>0</v>
+      </c>
+      <c r="K719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N719" t="n">
+        <v>0</v>
+      </c>
+      <c r="O719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R719" s="2" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>A 43061-2023</t>
+        </is>
+      </c>
+      <c r="B720" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C720" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>JÖNKÖPING</t>
+        </is>
+      </c>
+      <c r="G720" t="n">
+        <v>2</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0</v>
+      </c>
+      <c r="J720" t="n">
+        <v>0</v>
+      </c>
+      <c r="K720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N720" t="n">
+        <v>0</v>
+      </c>
+      <c r="O720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R720" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,31 +636,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 31921-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 31921-2019.xlsx", "A 31921-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 31921-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 31921-2019.png", "A 31921-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 31921-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 31921-2019.png", "A 31921-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 31921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 31921-2019.docx", "A 31921-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 31921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 31921-2019.docx", "A 31921-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 31921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 31921-2019.docx", "A 31921-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 31921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 31921-2019.docx", "A 31921-2019")</f>
         <v/>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -738,31 +738,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 17628-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 17628-2020.xlsx", "A 17628-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 17628-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 17628-2020.png", "A 17628-2020")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 17628-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 17628-2020.png", "A 17628-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 17628-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 17628-2020.docx", "A 17628-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 17628-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 17628-2020.docx", "A 17628-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 17628-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 17628-2020.docx", "A 17628-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 17628-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 17628-2020.docx", "A 17628-2020")</f>
         <v/>
       </c>
     </row>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,27 +834,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 14935-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 14935-2019.xlsx", "A 14935-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 14935-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 14935-2019.png", "A 14935-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 14935-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 14935-2019.docx", "A 14935-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 14935-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 14935-2019.docx", "A 14935-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 14935-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 14935-2019.docx", "A 14935-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 14935-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 14935-2019.docx", "A 14935-2019")</f>
         <v/>
       </c>
     </row>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,31 +926,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 25011-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 25011-2021.xlsx", "A 25011-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 25011-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 25011-2021.png", "A 25011-2021")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 25011-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 25011-2021.png", "A 25011-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 25011-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 25011-2021.docx", "A 25011-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 25011-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 25011-2021.docx", "A 25011-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 25011-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 25011-2021.docx", "A 25011-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 25011-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 25011-2021.docx", "A 25011-2021")</f>
         <v/>
       </c>
     </row>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,27 +1021,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 47226-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 47226-2018.xlsx", "A 47226-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 47226-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 47226-2018.png", "A 47226-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 47226-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 47226-2018.docx", "A 47226-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 47226-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 47226-2018.docx", "A 47226-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 47226-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 47226-2018.docx", "A 47226-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 47226-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 47226-2018.docx", "A 47226-2018")</f>
         <v/>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,27 +1111,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 50930-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 50930-2020.xlsx", "A 50930-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 50930-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 50930-2020.png", "A 50930-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 50930-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 50930-2020.docx", "A 50930-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 50930-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 50930-2020.docx", "A 50930-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 50930-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 50930-2020.docx", "A 50930-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 50930-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 50930-2020.docx", "A 50930-2020")</f>
         <v/>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,27 +1200,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 28966-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 28966-2020.xlsx", "A 28966-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 28966-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 28966-2020.png", "A 28966-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 28966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 28966-2020.docx", "A 28966-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 28966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 28966-2020.docx", "A 28966-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 28966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 28966-2020.docx", "A 28966-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 28966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 28966-2020.docx", "A 28966-2020")</f>
         <v/>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,27 +1294,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 44149-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 44149-2020.xlsx", "A 44149-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 44149-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 44149-2020.png", "A 44149-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 44149-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 44149-2020.docx", "A 44149-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 44149-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 44149-2020.docx", "A 44149-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 44149-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 44149-2020.docx", "A 44149-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 44149-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 44149-2020.docx", "A 44149-2020")</f>
         <v/>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,27 +1382,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 10724-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 10724-2023.xlsx", "A 10724-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 10724-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 10724-2023.png", "A 10724-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 10724-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 10724-2023.docx", "A 10724-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 10724-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 10724-2023.docx", "A 10724-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 10724-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 10724-2023.docx", "A 10724-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 10724-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 10724-2023.docx", "A 10724-2023")</f>
         <v/>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,31 +1470,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 11258-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 11258-2023.xlsx", "A 11258-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 11258-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 11258-2023.png", "A 11258-2023")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 11258-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 11258-2023.png", "A 11258-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 11258-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 11258-2023.docx", "A 11258-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 11258-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 11258-2023.docx", "A 11258-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 11258-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 11258-2023.docx", "A 11258-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 11258-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 11258-2023.docx", "A 11258-2023")</f>
         <v/>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,27 +1561,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 33853-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 33853-2020.xlsx", "A 33853-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 33853-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 33853-2020.png", "A 33853-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 33853-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 33853-2020.docx", "A 33853-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 33853-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 33853-2020.docx", "A 33853-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 33853-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 33853-2020.docx", "A 33853-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 33853-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 33853-2020.docx", "A 33853-2020")</f>
         <v/>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,27 +1648,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 68822-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 68822-2021.xlsx", "A 68822-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 68822-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 68822-2021.png", "A 68822-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 68822-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 68822-2021.docx", "A 68822-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 68822-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 68822-2021.docx", "A 68822-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 68822-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 68822-2021.docx", "A 68822-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 68822-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 68822-2021.docx", "A 68822-2021")</f>
         <v/>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,27 +1740,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 6799-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 6799-2022.xlsx", "A 6799-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 6799-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 6799-2022.png", "A 6799-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 6799-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 6799-2022.docx", "A 6799-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 6799-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 6799-2022.docx", "A 6799-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 6799-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 6799-2022.docx", "A 6799-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 6799-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 6799-2022.docx", "A 6799-2022")</f>
         <v/>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,27 +1827,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 8179-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 8179-2023.xlsx", "A 8179-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 8179-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 8179-2023.png", "A 8179-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 8179-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 8179-2023.docx", "A 8179-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 8179-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 8179-2023.docx", "A 8179-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 8179-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 8179-2023.docx", "A 8179-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 8179-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 8179-2023.docx", "A 8179-2023")</f>
         <v/>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,27 +1913,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 35412-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 35412-2018.xlsx", "A 35412-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 35412-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 35412-2018.png", "A 35412-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 35412-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 35412-2018.docx", "A 35412-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 35412-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 35412-2018.docx", "A 35412-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 35412-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 35412-2018.docx", "A 35412-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 35412-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 35412-2018.docx", "A 35412-2018")</f>
         <v/>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 26553-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 26553-2019.xlsx", "A 26553-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 26553-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 26553-2019.png", "A 26553-2019")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 26553-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 26553-2019.png", "A 26553-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 26553-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 26553-2019.docx", "A 26553-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 26553-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 26553-2019.docx", "A 26553-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 26553-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 26553-2019.docx", "A 26553-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 26553-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 26553-2019.docx", "A 26553-2019")</f>
         <v/>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,31 +2089,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 36871-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 36871-2019.xlsx", "A 36871-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 36871-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 36871-2019.png", "A 36871-2019")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 36871-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 36871-2019.png", "A 36871-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 36871-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 36871-2019.docx", "A 36871-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 36871-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 36871-2019.docx", "A 36871-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 36871-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 36871-2019.docx", "A 36871-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 36871-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 36871-2019.docx", "A 36871-2019")</f>
         <v/>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,27 +2179,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 66666-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 66666-2019.xlsx", "A 66666-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 66666-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 66666-2019.png", "A 66666-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 66666-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 66666-2019.docx", "A 66666-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 66666-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 66666-2019.docx", "A 66666-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 66666-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 66666-2019.docx", "A 66666-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 66666-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 66666-2019.docx", "A 66666-2019")</f>
         <v/>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,27 +2265,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 16652-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 16652-2020.xlsx", "A 16652-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 16652-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 16652-2020.png", "A 16652-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 16652-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 16652-2020.docx", "A 16652-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 16652-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 16652-2020.docx", "A 16652-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 16652-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 16652-2020.docx", "A 16652-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 16652-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 16652-2020.docx", "A 16652-2020")</f>
         <v/>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,27 +2351,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 46397-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 46397-2020.xlsx", "A 46397-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 46397-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 46397-2020.png", "A 46397-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 46397-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 46397-2020.docx", "A 46397-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 46397-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 46397-2020.docx", "A 46397-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 46397-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 46397-2020.docx", "A 46397-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 46397-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 46397-2020.docx", "A 46397-2020")</f>
         <v/>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,27 +2437,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 59687-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 59687-2020.xlsx", "A 59687-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 59687-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 59687-2020.png", "A 59687-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 59687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 59687-2020.docx", "A 59687-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 59687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 59687-2020.docx", "A 59687-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 59687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 59687-2020.docx", "A 59687-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 59687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 59687-2020.docx", "A 59687-2020")</f>
         <v/>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,27 +2523,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 10991-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 10991-2023.xlsx", "A 10991-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 10991-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 10991-2023.png", "A 10991-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 10991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 10991-2023.docx", "A 10991-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 10991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 10991-2023.docx", "A 10991-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 10991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 10991-2023.docx", "A 10991-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 10991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 10991-2023.docx", "A 10991-2023")</f>
         <v/>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,27 +2609,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 20756-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 20756-2023.xlsx", "A 20756-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 20756-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 20756-2023.png", "A 20756-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 20756-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 20756-2023.docx", "A 20756-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 20756-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 20756-2023.docx", "A 20756-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 20756-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 20756-2023.docx", "A 20756-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 20756-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 20756-2023.docx", "A 20756-2023")</f>
         <v/>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,27 +2699,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 58859-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 58859-2018.xlsx", "A 58859-2018")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 58859-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 58859-2018.png", "A 58859-2018")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 58859-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 58859-2018.docx", "A 58859-2018")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 58859-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 58859-2018.docx", "A 58859-2018")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 58859-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 58859-2018.docx", "A 58859-2018")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 58859-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 58859-2018.docx", "A 58859-2018")</f>
         <v/>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,31 +2784,31 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 61181-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 61181-2018.xlsx", "A 61181-2018")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 61181-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 61181-2018.png", "A 61181-2018")</f>
         <v/>
       </c>
       <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 61181-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 61181-2018.png", "A 61181-2018")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 61181-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 61181-2018.docx", "A 61181-2018")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 61181-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 61181-2018.docx", "A 61181-2018")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 61181-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 61181-2018.docx", "A 61181-2018")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 61181-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 61181-2018.docx", "A 61181-2018")</f>
         <v/>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2873,27 +2873,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 26905-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 26905-2019.xlsx", "A 26905-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 26905-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 26905-2019.png", "A 26905-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 26905-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 26905-2019.docx", "A 26905-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 26905-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 26905-2019.docx", "A 26905-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 26905-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 26905-2019.docx", "A 26905-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 26905-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 26905-2019.docx", "A 26905-2019")</f>
         <v/>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2958,31 +2958,31 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 28694-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 28694-2019.xlsx", "A 28694-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 28694-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 28694-2019.png", "A 28694-2019")</f>
         <v/>
       </c>
       <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 28694-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 28694-2019.png", "A 28694-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 28694-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 28694-2019.docx", "A 28694-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 28694-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 28694-2019.docx", "A 28694-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 28694-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 28694-2019.docx", "A 28694-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 28694-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 28694-2019.docx", "A 28694-2019")</f>
         <v/>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,27 +3047,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 28682-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 28682-2019.xlsx", "A 28682-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 28682-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 28682-2019.png", "A 28682-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 28682-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 28682-2019.docx", "A 28682-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 28682-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 28682-2019.docx", "A 28682-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 28682-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 28682-2019.docx", "A 28682-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 28682-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 28682-2019.docx", "A 28682-2019")</f>
         <v/>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3132,31 +3132,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 35825-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 35825-2019.xlsx", "A 35825-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 35825-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 35825-2019.png", "A 35825-2019")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 35825-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 35825-2019.png", "A 35825-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 35825-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 35825-2019.docx", "A 35825-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 35825-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 35825-2019.docx", "A 35825-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 35825-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 35825-2019.docx", "A 35825-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 35825-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 35825-2019.docx", "A 35825-2019")</f>
         <v/>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3226,27 +3226,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 48689-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 48689-2019.xlsx", "A 48689-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 48689-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 48689-2019.png", "A 48689-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 48689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 48689-2019.docx", "A 48689-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 48689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 48689-2019.docx", "A 48689-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 48689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 48689-2019.docx", "A 48689-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 48689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 48689-2019.docx", "A 48689-2019")</f>
         <v/>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3311,27 +3311,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 12704-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 12704-2020.xlsx", "A 12704-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 12704-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 12704-2020.png", "A 12704-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 12704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 12704-2020.docx", "A 12704-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 12704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 12704-2020.docx", "A 12704-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 12704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 12704-2020.docx", "A 12704-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 12704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 12704-2020.docx", "A 12704-2020")</f>
         <v/>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3396,27 +3396,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 36238-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 36238-2020.xlsx", "A 36238-2020")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 36238-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 36238-2020.png", "A 36238-2020")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 36238-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 36238-2020.docx", "A 36238-2020")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 36238-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 36238-2020.docx", "A 36238-2020")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 36238-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 36238-2020.docx", "A 36238-2020")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 36238-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 36238-2020.docx", "A 36238-2020")</f>
         <v/>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3486,27 +3486,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 44144-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 44144-2020.xlsx", "A 44144-2020")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 44144-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 44144-2020.png", "A 44144-2020")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 44144-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 44144-2020.docx", "A 44144-2020")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 44144-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 44144-2020.docx", "A 44144-2020")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 44144-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 44144-2020.docx", "A 44144-2020")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 44144-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 44144-2020.docx", "A 44144-2020")</f>
         <v/>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3571,27 +3571,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 46552-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 46552-2020.xlsx", "A 46552-2020")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 46552-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 46552-2020.png", "A 46552-2020")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 46552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 46552-2020.docx", "A 46552-2020")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 46552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 46552-2020.docx", "A 46552-2020")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 46552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 46552-2020.docx", "A 46552-2020")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 46552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 46552-2020.docx", "A 46552-2020")</f>
         <v/>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3656,27 +3656,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 14138-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 14138-2021.xlsx", "A 14138-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 14138-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 14138-2021.png", "A 14138-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 14138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 14138-2021.docx", "A 14138-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 14138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 14138-2021.docx", "A 14138-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 14138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 14138-2021.docx", "A 14138-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 14138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 14138-2021.docx", "A 14138-2021")</f>
         <v/>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3741,27 +3741,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 40268-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 40268-2021.xlsx", "A 40268-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 40268-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 40268-2021.png", "A 40268-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 40268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 40268-2021.docx", "A 40268-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 40268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 40268-2021.docx", "A 40268-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 40268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 40268-2021.docx", "A 40268-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 40268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 40268-2021.docx", "A 40268-2021")</f>
         <v/>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3826,27 +3826,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 48001-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 48001-2021.xlsx", "A 48001-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 48001-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 48001-2021.png", "A 48001-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 48001-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 48001-2021.docx", "A 48001-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 48001-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 48001-2021.docx", "A 48001-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 48001-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 48001-2021.docx", "A 48001-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 48001-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 48001-2021.docx", "A 48001-2021")</f>
         <v/>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,27 +3911,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 52023-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 52023-2021.xlsx", "A 52023-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 52023-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 52023-2021.png", "A 52023-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 52023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 52023-2021.docx", "A 52023-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 52023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 52023-2021.docx", "A 52023-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 52023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 52023-2021.docx", "A 52023-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 52023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 52023-2021.docx", "A 52023-2021")</f>
         <v/>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,27 +3996,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 53025-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 53025-2021.xlsx", "A 53025-2021")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 53025-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 53025-2021.png", "A 53025-2021")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 53025-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 53025-2021.docx", "A 53025-2021")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 53025-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 53025-2021.docx", "A 53025-2021")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 53025-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 53025-2021.docx", "A 53025-2021")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 53025-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 53025-2021.docx", "A 53025-2021")</f>
         <v/>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4081,31 +4081,31 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 53670-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 53670-2021.xlsx", "A 53670-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 53670-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 53670-2021.png", "A 53670-2021")</f>
         <v/>
       </c>
       <c r="U41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 53670-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 53670-2021.png", "A 53670-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 53670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 53670-2021.docx", "A 53670-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 53670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 53670-2021.docx", "A 53670-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 53670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 53670-2021.docx", "A 53670-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 53670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 53670-2021.docx", "A 53670-2021")</f>
         <v/>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4170,27 +4170,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 40772-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 40772-2022.xlsx", "A 40772-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 40772-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 40772-2022.png", "A 40772-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 40772-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 40772-2022.docx", "A 40772-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 40772-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 40772-2022.docx", "A 40772-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 40772-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 40772-2022.docx", "A 40772-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 40772-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 40772-2022.docx", "A 40772-2022")</f>
         <v/>
       </c>
     </row>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,27 +4255,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 45366-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 45366-2022.xlsx", "A 45366-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 45366-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 45366-2022.png", "A 45366-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 45366-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 45366-2022.docx", "A 45366-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 45366-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 45366-2022.docx", "A 45366-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 45366-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 45366-2022.docx", "A 45366-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 45366-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 45366-2022.docx", "A 45366-2022")</f>
         <v/>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,31 +4340,31 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 53601-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 53601-2022.xlsx", "A 53601-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 53601-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 53601-2022.png", "A 53601-2022")</f>
         <v/>
       </c>
       <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 53601-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 53601-2022.png", "A 53601-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 53601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 53601-2022.docx", "A 53601-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 53601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 53601-2022.docx", "A 53601-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 53601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 53601-2022.docx", "A 53601-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 53601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 53601-2022.docx", "A 53601-2022")</f>
         <v/>
       </c>
     </row>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4429,27 +4429,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 2486-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 2486-2023.xlsx", "A 2486-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 2486-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 2486-2023.png", "A 2486-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 2486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 2486-2023.docx", "A 2486-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 2486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 2486-2023.docx", "A 2486-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 2486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 2486-2023.docx", "A 2486-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 2486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 2486-2023.docx", "A 2486-2023")</f>
         <v/>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4514,27 +4514,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 5906-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 5906-2023.xlsx", "A 5906-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 5906-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 5906-2023.png", "A 5906-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 5906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 5906-2023.docx", "A 5906-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 5906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 5906-2023.docx", "A 5906-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 5906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 5906-2023.docx", "A 5906-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 5906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 5906-2023.docx", "A 5906-2023")</f>
         <v/>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4599,27 +4599,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 8977-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 8977-2023.xlsx", "A 8977-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 8977-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 8977-2023.png", "A 8977-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 8977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 8977-2023.docx", "A 8977-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 8977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 8977-2023.docx", "A 8977-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 8977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 8977-2023.docx", "A 8977-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 8977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 8977-2023.docx", "A 8977-2023")</f>
         <v/>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,27 +4684,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 11256-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 11256-2023.xlsx", "A 11256-2023")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 11256-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 11256-2023.png", "A 11256-2023")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 11256-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 11256-2023.docx", "A 11256-2023")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 11256-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 11256-2023.docx", "A 11256-2023")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 11256-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 11256-2023.docx", "A 11256-2023")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 11256-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 11256-2023.docx", "A 11256-2023")</f>
         <v/>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4769,27 +4769,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 11983-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 11983-2023.xlsx", "A 11983-2023")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 11983-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 11983-2023.png", "A 11983-2023")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 11983-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 11983-2023.docx", "A 11983-2023")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 11983-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 11983-2023.docx", "A 11983-2023")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 11983-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 11983-2023.docx", "A 11983-2023")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 11983-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 11983-2023.docx", "A 11983-2023")</f>
         <v/>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4854,27 +4854,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 31519-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/artfynd/A 31519-2023.xlsx", "A 31519-2023")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 31519-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/kartor/A 31519-2023.png", "A 31519-2023")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 31519-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 31519-2023.docx", "A 31519-2023")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 31519-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 31519-2023.docx", "A 31519-2023")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 31519-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 31519-2023.docx", "A 31519-2023")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 31519-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 31519-2023.docx", "A 31519-2023")</f>
         <v/>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17446,23 +17446,23 @@
       </c>
       <c r="R269" s="2" t="inlineStr"/>
       <c r="U269">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 13377-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 13377-2020.png", "A 13377-2020")</f>
         <v/>
       </c>
       <c r="V269">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 13377-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 13377-2020.docx", "A 13377-2020")</f>
         <v/>
       </c>
       <c r="W269">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 13377-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 13377-2020.docx", "A 13377-2020")</f>
         <v/>
       </c>
       <c r="X269">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 13377-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 13377-2020.docx", "A 13377-2020")</f>
         <v/>
       </c>
       <c r="Y269">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 13377-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 13377-2020.docx", "A 13377-2020")</f>
         <v/>
       </c>
     </row>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38645,23 +38645,23 @@
       </c>
       <c r="R636" s="2" t="inlineStr"/>
       <c r="U636">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 12653-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 12653-2023.png", "A 12653-2023")</f>
         <v/>
       </c>
       <c r="V636">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 12653-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 12653-2023.docx", "A 12653-2023")</f>
         <v/>
       </c>
       <c r="W636">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 12653-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 12653-2023.docx", "A 12653-2023")</f>
         <v/>
       </c>
       <c r="X636">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 12653-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 12653-2023.docx", "A 12653-2023")</f>
         <v/>
       </c>
       <c r="Y636">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 12653-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 12653-2023.docx", "A 12653-2023")</f>
         <v/>
       </c>
     </row>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39691,23 +39691,23 @@
       </c>
       <c r="R654" s="2" t="inlineStr"/>
       <c r="U654">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 17486-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/knärot/A 17486-2023.png", "A 17486-2023")</f>
         <v/>
       </c>
       <c r="V654">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 17486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomål/A 17486-2023.docx", "A 17486-2023")</f>
         <v/>
       </c>
       <c r="W654">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 17486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/klagomålsmail/A 17486-2023.docx", "A 17486-2023")</f>
         <v/>
       </c>
       <c r="X654">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 17486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsyn/A 17486-2023.docx", "A 17486-2023")</f>
         <v/>
       </c>
       <c r="Y654">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 17486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JONKOPING/tillsynsmail/A 17486-2023.docx", "A 17486-2023")</f>
         <v/>
       </c>
     </row>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45181</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45182</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45182</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45182</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45181</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45182</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45182</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45182</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45181</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45182</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45182</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45182</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y720"/>
+  <dimension ref="A1:Y723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44734</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44735</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44735</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44735</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44739</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44739</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44749</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44750</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44762</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44781</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44792</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>44804</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>44805</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44809</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44810</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44810</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44811</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44813</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44819</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44831</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44833</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44834</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44834</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44840</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44840</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44844</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44844</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44851</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44853</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44853</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>44853</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>44853</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44858</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44874</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44879</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44881</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44881</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44881</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44882</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44882</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44882</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44882</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44882</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44893</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44893</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44893</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44893</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44893</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44894</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44896</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44897</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44898</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44904</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44904</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44904</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44904</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44904</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44907</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44911</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44911</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44917</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44930</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44930</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44930</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44935</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44936</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44936</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44937</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37282,7 +37282,7 @@
         <v>44938</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>44943</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>44949</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>44950</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44950</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>44950</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44950</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>44963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44965</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>44974</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44979</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44981</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44985</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44986</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44988</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44992</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44992</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44992</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44992</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44998</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>44999</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45005</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45008</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45009</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45009</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45011</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45012</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45015</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45015</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45029</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45030</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45034</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45035</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45036</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45036</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45043</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45043</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45043</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45044</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45048</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45049</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45049</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45054</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45054</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45056</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45056</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45056</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45056</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45056</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45058</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45068</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45071</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45079</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45079</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45085</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45090</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45092</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45099</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45103</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45103</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45103</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45103</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45104</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45107</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45107</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45107</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45112</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45112</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45112</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45113</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45121</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45122</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45123</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45124</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45127</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45127</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45127</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45130</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45132</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45145</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45149</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45149</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45152</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45152</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45169</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45169</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45169</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45169</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45170</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45181</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45182</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45182</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43416,7 +43416,7 @@
       </c>
       <c r="R719" s="2" t="inlineStr"/>
     </row>
-    <row r="720">
+    <row r="720" ht="15" customHeight="1">
       <c r="A720" t="inlineStr">
         <is>
           <t>A 43061-2023</t>
@@ -43426,7 +43426,7 @@
         <v>45182</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43472,6 +43472,177 @@
         <v>0</v>
       </c>
       <c r="R720" s="2" t="inlineStr"/>
+    </row>
+    <row r="721" ht="15" customHeight="1">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>A 44419-2023</t>
+        </is>
+      </c>
+      <c r="B721" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C721" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>JÖNKÖPING</t>
+        </is>
+      </c>
+      <c r="G721" t="n">
+        <v>1</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="n">
+        <v>0</v>
+      </c>
+      <c r="J721" t="n">
+        <v>0</v>
+      </c>
+      <c r="K721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N721" t="n">
+        <v>0</v>
+      </c>
+      <c r="O721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R721" s="2" t="inlineStr"/>
+    </row>
+    <row r="722" ht="15" customHeight="1">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>A 44417-2023</t>
+        </is>
+      </c>
+      <c r="B722" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C722" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>JÖNKÖPING</t>
+        </is>
+      </c>
+      <c r="G722" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0</v>
+      </c>
+      <c r="J722" t="n">
+        <v>0</v>
+      </c>
+      <c r="K722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N722" t="n">
+        <v>0</v>
+      </c>
+      <c r="O722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R722" s="2" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>A 44416-2023</t>
+        </is>
+      </c>
+      <c r="B723" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C723" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>JÖNKÖPING</t>
+        </is>
+      </c>
+      <c r="G723" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0</v>
+      </c>
+      <c r="J723" t="n">
+        <v>0</v>
+      </c>
+      <c r="K723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N723" t="n">
+        <v>0</v>
+      </c>
+      <c r="O723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R723" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43641</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43538</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>43368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44083</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44027</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43675</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>43920</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44094</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44991</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45058</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43399</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43609</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43665</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43899</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44083</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44095</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44467</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44469</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44992</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44994</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45116</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43346</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43347</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43347</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43347</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43347</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43353</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43388</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43399</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43399</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43403</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43409</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43411</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43413</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43418</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43424</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43432</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43440</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43450</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43452</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43493</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43495</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43497</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43497</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43502</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43502</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43504</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43514</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43514</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43530</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43531</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43537</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43542</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43546</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43550</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43550</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43551</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43551</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43557</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43565</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43589</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>43592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43598</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43598</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43602</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43605</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43613</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43619</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43620</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43626</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43632</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43633</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43633</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43634</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43636</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43663</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43665</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43669</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43671</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43671</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43676</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43677</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43677</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43682</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43685</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43689</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43690</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43690</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43691</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43697</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43705</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43719</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43731</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43742</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43745</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43752</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43752</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43767</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43775</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43775</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43794</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43804</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43805</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43809</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43837</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43845</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>43853</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>43857</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>43865</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>43865</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43896</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43902</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43908</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>43914</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>43916</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>43916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>43920</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>43923</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>43923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>43923</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>43923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>43938</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>43943</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>43949</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>43951</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43958</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43958</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>43962</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>43985</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>43998</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>43998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44004</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44005</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44018</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44018</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44018</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44021</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44022</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44028</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44032</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44048</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44054</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44054</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44056</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44056</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44060</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44063</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44064</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44066</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44075</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44076</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44082</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44082</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44082</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44086</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44092</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44093</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44095</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44103</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44104</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44109</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44110</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44113</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44118</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44118</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44118</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44118</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44118</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44130</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44137</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44137</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44138</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44145</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44145</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44145</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44158</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44172</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44173</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44175</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44188</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44194</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44200</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44211</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44225</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44225</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44229</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44231</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44239</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44239</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44239</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44249</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44249</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44252</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44261</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44263</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44263</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44272</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44272</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44272</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44272</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44273</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44273</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44280</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44284</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44287</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44292</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44292</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44294</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44301</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>44306</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>44308</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44308</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44308</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44308</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44321</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44321</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44326</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>44344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44344</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44348</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44349</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44356</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44360</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44365</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44371</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44373</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44377</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44382</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44411</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44411</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44412</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44414</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>44428</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44428</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44442</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44449</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44449</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44454</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44459</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44476</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44476</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44484</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44487</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44487</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44487</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44487</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44487</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44489</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44494</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44496</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44498</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44503</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44511</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44531</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44536</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44537</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44538</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44545</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44552</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44557</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44575</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44575</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44575</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44579</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44591</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44591</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44595</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44596</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44605</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44608</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44613</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44614</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44614</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44622</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44626</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44628</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44628</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44631</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44631</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44648</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44648</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44658</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44659</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44659</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44662</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44662</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44662</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44670</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44670</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44673</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44677</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44686</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44686</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44694</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44697</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44711</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44711</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44711</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44711</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44711</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44711</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44711</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44714</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44715</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>44722</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44729</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>44729</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44734</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44734</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44734</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@